--- a/data/building_list_FY25.xlsx
+++ b/data/building_list_FY25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douglasm/Dropbox/Dickinson/My courses/2026 Env Data Analysis/dickinson_power/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggie/Dropbox/Dickinson/My courses/2026 Env Data Analysis/dickinson_power/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1BFCB080-A176-0E43-BD2A-48D985DB075E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED13F56F-8B98-DB4B-92A7-98C4248234F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="4080" windowWidth="30300" windowHeight="20040" xr2:uid="{6A884FB4-B7F2-894B-AB4B-5FE565777B9D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{6A884FB4-B7F2-894B-AB4B-5FE565777B9D}"/>
   </bookViews>
   <sheets>
     <sheet name="building_list_FY25" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="299">
   <si>
     <t>type</t>
   </si>
@@ -247,9 +247,6 @@
     <t>5 N. Orange St.</t>
   </si>
   <si>
-    <t>Facilities Management, Print Center, CASE, Project SHARE, CPYB</t>
-  </si>
-  <si>
     <t>50 Mooreland Ave.</t>
   </si>
   <si>
@@ -911,13 +908,25 @@
   </si>
   <si>
     <t>Witwer Hall</t>
+  </si>
+  <si>
+    <t>5 N. Orange St. - Facilities</t>
+  </si>
+  <si>
+    <t>Facilities Management, Print Center, CASE</t>
+  </si>
+  <si>
+    <t>5 N. Orange St. - SHARE/CPYB</t>
+  </si>
+  <si>
+    <t>Project SHARE and CPYB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1801,26 +1810,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L125" sqref="L125"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1863,13 +1872,13 @@
         <v>1080</v>
       </c>
       <c r="C2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" t="s">
         <v>289</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>290</v>
-      </c>
-      <c r="E2" t="s">
-        <v>291</v>
       </c>
       <c r="F2">
         <v>1929</v>
@@ -1890,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1898,13 +1907,13 @@
         <v>1070</v>
       </c>
       <c r="C3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" t="s">
         <v>266</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>267</v>
-      </c>
-      <c r="E3" t="s">
-        <v>268</v>
       </c>
       <c r="F3">
         <v>2000</v>
@@ -1919,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1927,13 +1936,13 @@
         <v>1040</v>
       </c>
       <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
         <v>176</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>177</v>
-      </c>
-      <c r="E4" t="s">
-        <v>178</v>
       </c>
       <c r="F4">
         <v>1891</v>
@@ -1954,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1962,13 +1971,13 @@
         <v>1035</v>
       </c>
       <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
       </c>
       <c r="G5">
         <v>1979</v>
@@ -1983,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1991,13 +2000,13 @@
         <v>1665</v>
       </c>
       <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
         <v>139</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>140</v>
-      </c>
-      <c r="E6" t="s">
-        <v>141</v>
       </c>
       <c r="G6">
         <v>1997</v>
@@ -2015,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2023,13 +2032,13 @@
         <v>1195</v>
       </c>
       <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
         <v>99</v>
       </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7">
         <v>1895</v>
@@ -2047,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2079,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2087,10 +2096,10 @@
         <v>1810</v>
       </c>
       <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" t="s">
         <v>179</v>
-      </c>
-      <c r="D9" t="s">
-        <v>180</v>
       </c>
       <c r="G9">
         <v>1966</v>
@@ -2105,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2142,10 +2151,10 @@
         <v>1432</v>
       </c>
       <c r="C11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" t="s">
         <v>197</v>
-      </c>
-      <c r="D11" t="s">
-        <v>198</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
@@ -2163,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -2171,13 +2180,13 @@
         <v>1075</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="F12" s="3">
         <v>1967</v>
@@ -2196,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -2204,13 +2213,13 @@
         <v>1045</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="F13" s="3">
         <v>2007</v>
@@ -2227,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -2235,13 +2244,13 @@
         <v>1025</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="F14" s="3">
         <v>1905</v>
@@ -2260,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -2268,13 +2277,13 @@
         <v>1010</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="F15" s="3">
         <v>1884</v>
@@ -2293,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -2301,13 +2310,13 @@
         <v>1005</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F16" s="3">
         <v>1957</v>
@@ -2326,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -2334,13 +2343,13 @@
         <v>1030</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F17" s="3">
         <v>1836</v>
@@ -2359,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -2367,13 +2376,13 @@
         <v>1065</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="F18" s="3">
         <v>1885</v>
@@ -2394,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -2402,13 +2411,13 @@
         <v>1090</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="F19" s="3">
         <v>1827</v>
@@ -2427,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -2435,13 +2444,13 @@
         <v>1060</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="F20" s="3">
         <v>1837</v>
@@ -2462,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -2470,13 +2479,13 @@
         <v>1015</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
@@ -2493,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
@@ -2501,13 +2510,13 @@
         <v>1095</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
@@ -2524,27 +2533,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="B23">
-        <v>1085</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G23">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="I23">
-        <v>27100</v>
+        <v>75000</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2553,27 +2562,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>63</v>
       </c>
       <c r="B24">
-        <v>1150</v>
+        <v>1085</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>254</v>
-      </c>
-      <c r="F24">
-        <v>1948</v>
+        <v>74</v>
+      </c>
+      <c r="G24">
+        <v>1998</v>
       </c>
       <c r="I24">
-        <v>21166</v>
+        <v>27100</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2582,33 +2591,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>63</v>
       </c>
       <c r="B25">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="C25" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="D25" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="E25" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="F25">
-        <v>1912</v>
-      </c>
-      <c r="G25">
-        <v>1964</v>
-      </c>
-      <c r="H25">
-        <v>2010</v>
+        <v>1948</v>
       </c>
       <c r="I25">
-        <v>14040</v>
+        <v>21166</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2617,27 +2620,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>63</v>
       </c>
       <c r="B26">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="E26" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="F26">
-        <v>1948</v>
+        <v>1912</v>
+      </c>
+      <c r="G26">
+        <v>1964</v>
+      </c>
+      <c r="H26">
+        <v>2010</v>
       </c>
       <c r="I26">
-        <v>10566</v>
+        <v>14040</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2646,30 +2655,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>63</v>
       </c>
       <c r="B27">
-        <v>1130</v>
+        <v>1145</v>
       </c>
       <c r="C27" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="E27" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F27">
-        <v>1900</v>
-      </c>
-      <c r="G27">
-        <v>1985</v>
+        <v>1948</v>
       </c>
       <c r="I27">
-        <v>2540</v>
+        <v>10566</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2678,24 +2684,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>63</v>
       </c>
       <c r="B28">
-        <v>1275</v>
+        <v>1130</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>235</v>
+      </c>
+      <c r="F28">
+        <v>1900</v>
+      </c>
+      <c r="G28">
+        <v>1985</v>
       </c>
       <c r="I28">
-        <v>2200</v>
+        <v>2540</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2704,30 +2716,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>63</v>
       </c>
       <c r="B29">
-        <v>1590</v>
+        <v>1275</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29">
-        <v>1987</v>
-      </c>
-      <c r="H29">
-        <v>2017</v>
+        <v>64</v>
       </c>
       <c r="I29">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2736,30 +2742,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>63</v>
       </c>
       <c r="B30">
-        <v>1140</v>
+        <v>1590</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>248</v>
-      </c>
-      <c r="F30">
-        <v>1949</v>
+        <v>93</v>
       </c>
       <c r="G30">
-        <v>1957</v>
+        <v>1987</v>
+      </c>
+      <c r="H30">
+        <v>2017</v>
       </c>
       <c r="I30">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2768,314 +2774,314 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>63</v>
       </c>
       <c r="B31">
+        <v>1140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" t="s">
+        <v>246</v>
+      </c>
+      <c r="E31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31">
+        <v>1949</v>
+      </c>
+      <c r="G31">
+        <v>1957</v>
+      </c>
+      <c r="I31">
+        <v>1800</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
         <v>1585</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
         <v>92</v>
       </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31">
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32">
         <v>1984</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>2017</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>1440</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B33" s="5">
         <v>1685</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
         <v>2004</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H33" s="5">
         <v>2007</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I33" s="5">
         <v>78015</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J33" s="5">
         <v>1</v>
       </c>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B34" s="4">
         <v>1120</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F34" s="4">
+        <v>1803</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4">
+        <v>30208</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35">
+        <v>1984</v>
+      </c>
+      <c r="H35">
+        <v>2009</v>
+      </c>
+      <c r="I35">
+        <v>10892</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36">
+        <v>1235</v>
+      </c>
+      <c r="C36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36">
+        <v>1998</v>
+      </c>
+      <c r="I36">
+        <v>9300</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37">
+        <v>1050</v>
+      </c>
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37">
+        <v>1905</v>
+      </c>
+      <c r="G37">
+        <v>1968</v>
+      </c>
+      <c r="I37">
+        <v>7953</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38">
+        <v>1250</v>
+      </c>
+      <c r="C38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38">
+        <v>1899</v>
+      </c>
+      <c r="G38">
+        <v>1931</v>
+      </c>
+      <c r="H38">
+        <v>2000</v>
+      </c>
+      <c r="I38">
+        <v>6887</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1277</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F33" s="4">
-        <v>1803</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4">
-        <v>30208</v>
-      </c>
-      <c r="J33" s="4">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34">
-        <v>1984</v>
-      </c>
-      <c r="H34">
-        <v>2009</v>
-      </c>
-      <c r="I34">
-        <v>10892</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35">
-        <v>1235</v>
-      </c>
-      <c r="C35" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" t="s">
-        <v>205</v>
-      </c>
-      <c r="F35">
-        <v>1998</v>
-      </c>
-      <c r="I35">
-        <v>9300</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36">
-        <v>1050</v>
-      </c>
-      <c r="C36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36">
-        <v>1905</v>
-      </c>
-      <c r="G36">
-        <v>1968</v>
-      </c>
-      <c r="I36">
-        <v>7953</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37">
-        <v>1250</v>
-      </c>
-      <c r="C37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" t="s">
-        <v>232</v>
-      </c>
-      <c r="E37" t="s">
-        <v>233</v>
-      </c>
-      <c r="F37">
-        <v>1899</v>
-      </c>
-      <c r="G37">
-        <v>1931</v>
-      </c>
-      <c r="H37">
-        <v>2000</v>
-      </c>
-      <c r="I37">
-        <v>6887</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1277</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1">
         <v>2016</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
         <v>6274</v>
       </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39">
-        <v>1999</v>
-      </c>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39">
-        <v>1994</v>
-      </c>
-      <c r="I39">
-        <v>117500</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>14</v>
       </c>
       <c r="B40">
-        <v>1210</v>
+        <v>1999</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>298</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40">
-        <v>1958</v>
+        <v>73</v>
       </c>
       <c r="G40">
-        <v>2013</v>
+        <v>1994</v>
       </c>
       <c r="I40">
-        <v>33310</v>
+        <v>42500</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3084,33 +3090,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>14</v>
       </c>
       <c r="B41">
-        <v>1260</v>
+        <v>1210</v>
       </c>
       <c r="C41" t="s">
-        <v>292</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>104</v>
       </c>
       <c r="F41">
-        <v>1993</v>
+        <v>1958</v>
       </c>
       <c r="G41">
-        <v>2002</v>
-      </c>
-      <c r="H41">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="I41">
-        <v>25000</v>
+        <v>33310</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3119,27 +3122,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>14</v>
       </c>
       <c r="B42">
-        <v>1161</v>
+        <v>1260</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>293</v>
       </c>
       <c r="F42">
-        <v>2014</v>
+        <v>1993</v>
+      </c>
+      <c r="G42">
+        <v>2002</v>
+      </c>
+      <c r="H42">
+        <v>2020</v>
       </c>
       <c r="I42">
-        <v>22700</v>
+        <v>25000</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3148,27 +3157,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>14</v>
       </c>
       <c r="B43">
-        <v>1675</v>
+        <v>1161</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43">
-        <v>1967</v>
+        <v>126</v>
+      </c>
+      <c r="F43">
+        <v>2014</v>
       </c>
       <c r="I43">
-        <v>14500</v>
+        <v>22700</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3177,33 +3186,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>14</v>
       </c>
       <c r="B44">
-        <v>1245</v>
+        <v>1675</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44">
-        <v>1833</v>
+        <v>132</v>
       </c>
       <c r="G44">
-        <v>1890</v>
-      </c>
-      <c r="H44">
-        <v>2023</v>
+        <v>1967</v>
       </c>
       <c r="I44">
-        <v>11256</v>
+        <v>14500</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3212,33 +3215,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>14</v>
       </c>
       <c r="B45">
-        <v>1210</v>
+        <v>1245</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="F45">
-        <v>1920</v>
+        <v>1833</v>
       </c>
       <c r="G45">
-        <v>1943</v>
+        <v>1890</v>
       </c>
       <c r="H45">
-        <v>2003</v>
+        <v>2023</v>
       </c>
       <c r="I45">
-        <v>5995</v>
+        <v>11256</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3247,27 +3250,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>14</v>
       </c>
       <c r="B46">
-        <v>1819</v>
+        <v>1210</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>112</v>
+      </c>
+      <c r="F46">
+        <v>1920</v>
       </c>
       <c r="G46">
-        <v>2014</v>
+        <v>1943</v>
+      </c>
+      <c r="H46">
+        <v>2003</v>
       </c>
       <c r="I46">
-        <v>3000</v>
+        <v>5995</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3276,30 +3285,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>14</v>
       </c>
       <c r="B47">
-        <v>1310</v>
+        <v>1819</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
-      </c>
-      <c r="F47">
-        <v>1967</v>
+        <v>72</v>
       </c>
       <c r="G47">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="I47">
-        <v>2745</v>
+        <v>3000</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3308,27 +3314,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>14</v>
       </c>
       <c r="B48">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>199</v>
+      </c>
+      <c r="F48">
+        <v>1967</v>
       </c>
       <c r="G48">
-        <v>1967</v>
+        <v>2000</v>
       </c>
       <c r="I48">
-        <v>2250</v>
+        <v>2745</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3337,27 +3346,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>14</v>
       </c>
       <c r="B49">
-        <v>1824</v>
+        <v>1300</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="G49">
-        <v>2012</v>
+        <v>1967</v>
       </c>
       <c r="I49">
-        <v>2240</v>
+        <v>2250</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3366,27 +3375,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>14</v>
       </c>
       <c r="B50">
-        <v>1162</v>
+        <v>1824</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50">
-        <v>2014</v>
+        <v>17</v>
+      </c>
+      <c r="G50">
+        <v>2012</v>
       </c>
       <c r="I50">
-        <v>2195</v>
+        <v>2240</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3395,27 +3404,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>14</v>
       </c>
       <c r="B51">
-        <v>1305</v>
+        <v>1162</v>
       </c>
       <c r="C51" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>193</v>
-      </c>
-      <c r="G51">
-        <v>1997</v>
+        <v>126</v>
+      </c>
+      <c r="F51">
+        <v>2014</v>
       </c>
       <c r="I51">
-        <v>1800</v>
+        <v>2195</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3424,30 +3433,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>14</v>
       </c>
       <c r="B52">
-        <v>1857</v>
+        <v>1305</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52">
-        <v>1910</v>
+        <v>192</v>
       </c>
       <c r="G52">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="I52">
-        <v>1586</v>
+        <v>1800</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3456,30 +3462,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>14</v>
       </c>
       <c r="B53">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="G53">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I53">
-        <v>1111</v>
+        <v>1586</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3488,21 +3494,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>14</v>
       </c>
       <c r="B54">
-        <v>1589</v>
+        <v>1858</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F54">
         <v>1900</v>
@@ -3511,7 +3517,7 @@
         <v>2010</v>
       </c>
       <c r="I54">
-        <v>992</v>
+        <v>1111</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3520,27 +3526,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>14</v>
       </c>
       <c r="B55">
-        <v>1815</v>
+        <v>1589</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="F55">
+        <v>1900</v>
       </c>
       <c r="G55">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="I55">
-        <v>500</v>
+        <v>992</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3549,21 +3558,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>14</v>
       </c>
       <c r="B56">
-        <v>1826</v>
+        <v>1815</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="G56">
+        <v>2006</v>
+      </c>
+      <c r="I56">
+        <v>500</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3572,80 +3587,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>14</v>
       </c>
+      <c r="B57">
+        <v>1826</v>
+      </c>
       <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
         <v>77</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E58" t="s">
         <v>78</v>
       </c>
-      <c r="E57" t="s">
-        <v>79</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="3">
-        <v>1170</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1980</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3">
-        <v>124551</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B59" s="3">
-        <v>1240</v>
+        <v>1170</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F59" s="3">
-        <v>1966</v>
+        <v>1980</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3">
-        <v>118356</v>
+        <v>124551</v>
       </c>
       <c r="J59" s="3">
         <v>1</v>
@@ -3654,29 +3661,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B60" s="3">
-        <v>1215</v>
+        <v>1240</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="F60" s="3">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3">
-        <v>49403</v>
+        <v>118356</v>
       </c>
       <c r="J60" s="3">
         <v>1</v>
@@ -3685,93 +3692,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:11">
+      <c r="A61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
+        <v>1215</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1971</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3">
+        <v>49403</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="4">
         <v>1230</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4">
         <v>1983</v>
       </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4">
         <v>2460</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J62" s="4">
         <v>1</v>
       </c>
-      <c r="K61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62">
-        <v>1370</v>
-      </c>
-      <c r="C62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" t="s">
-        <v>175</v>
-      </c>
-      <c r="F62">
-        <v>1891</v>
-      </c>
-      <c r="G62">
-        <v>1979</v>
-      </c>
-      <c r="H62">
-        <v>2000</v>
-      </c>
-      <c r="I62">
-        <v>60000</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>52</v>
       </c>
       <c r="B63">
-        <v>1360</v>
+        <v>1370</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F63">
-        <v>1952</v>
+        <v>1891</v>
+      </c>
+      <c r="G63">
+        <v>1979</v>
+      </c>
+      <c r="H63">
+        <v>2000</v>
       </c>
       <c r="I63">
-        <v>48720</v>
+        <v>60000</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3780,27 +3789,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>52</v>
       </c>
       <c r="B64">
-        <v>1315</v>
+        <v>1360</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="F64">
-        <v>1962</v>
+        <v>1952</v>
       </c>
       <c r="I64">
-        <v>47750</v>
+        <v>48720</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3809,27 +3818,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>52</v>
       </c>
       <c r="B65">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="F65">
-        <v>2018</v>
+        <v>1962</v>
       </c>
       <c r="I65">
-        <v>41945</v>
+        <v>47750</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3838,30 +3847,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>52</v>
       </c>
       <c r="B66">
-        <v>1410</v>
+        <v>1317</v>
       </c>
       <c r="C66" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F66">
-        <v>1955</v>
-      </c>
-      <c r="G66">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="I66">
-        <v>40000</v>
+        <v>41945</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3870,27 +3876,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>52</v>
       </c>
       <c r="B67">
-        <v>1390</v>
+        <v>1410</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F67">
-        <v>1966</v>
+        <v>1955</v>
+      </c>
+      <c r="G67">
+        <v>2003</v>
       </c>
       <c r="I67">
-        <v>20434</v>
+        <v>40000</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3899,24 +3908,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>52</v>
       </c>
       <c r="B68">
-        <v>1485</v>
+        <v>1390</v>
       </c>
       <c r="C68" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>102</v>
+        <v>214</v>
+      </c>
+      <c r="F68">
+        <v>1966</v>
       </c>
       <c r="I68">
-        <v>18603</v>
+        <v>20434</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3925,53 +3937,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>52</v>
       </c>
       <c r="B69">
-        <v>1365</v>
+        <v>1485</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="I69">
-        <v>13000</v>
+        <v>18603</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>52</v>
       </c>
       <c r="B70">
-        <v>1823</v>
+        <v>1365</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
-      </c>
-      <c r="F70">
-        <v>1905</v>
+        <v>172</v>
       </c>
       <c r="I70">
-        <v>11750</v>
+        <v>13000</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3980,132 +3989,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>52</v>
       </c>
       <c r="B71">
-        <v>1395</v>
+        <v>1823</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="F71">
-        <v>1926</v>
-      </c>
-      <c r="G71">
-        <v>1957</v>
+        <v>1905</v>
       </c>
       <c r="I71">
-        <v>11548</v>
+        <v>11750</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>52</v>
       </c>
       <c r="B72">
+        <v>1395</v>
+      </c>
+      <c r="C72" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>216</v>
+      </c>
+      <c r="F72">
+        <v>1926</v>
+      </c>
+      <c r="G72">
+        <v>1957</v>
+      </c>
+      <c r="I72">
+        <v>11548</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73">
         <v>1445</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
         <v>264</v>
       </c>
-      <c r="D72" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" t="s">
-        <v>265</v>
-      </c>
-      <c r="G72">
+      <c r="G73">
         <v>1964</v>
       </c>
-      <c r="H72">
+      <c r="H73">
         <v>2003</v>
       </c>
-      <c r="I72">
+      <c r="I73">
         <v>11340</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F73" s="3">
-        <v>1964</v>
-      </c>
-      <c r="G73" s="3">
-        <v>2005</v>
-      </c>
-      <c r="H73" s="3">
-        <v>2005</v>
-      </c>
-      <c r="I73" s="3">
-        <v>31000</v>
-      </c>
-      <c r="J73" s="3">
-        <v>1</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F74" s="3">
         <v>1964</v>
       </c>
       <c r="G74" s="3">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="H74" s="3">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="I74" s="3">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="J74" s="3">
         <v>1</v>
@@ -4114,29 +4117,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11">
       <c r="A75" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="3">
-        <v>1380</v>
+      <c r="B75" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="F75" s="3">
-        <v>1969</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+        <v>1964</v>
+      </c>
+      <c r="G75" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H75" s="3">
+        <v>2000</v>
+      </c>
       <c r="I75" s="3">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="J75" s="3">
         <v>1</v>
@@ -4145,29 +4152,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11">
       <c r="A76" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B76" s="3">
-        <v>1405</v>
+        <v>1380</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="F76" s="3">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3">
-        <v>18933</v>
+        <v>23000</v>
       </c>
       <c r="J76" s="3">
         <v>1</v>
@@ -4176,31 +4183,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11">
       <c r="A77" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B77" s="3">
-        <v>1440</v>
+        <v>1405</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="F77" s="3">
-        <v>1931</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1964</v>
-      </c>
+        <v>1973</v>
+      </c>
+      <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3">
-        <v>11520</v>
+        <v>18933</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
@@ -4209,29 +4214,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11">
       <c r="A78" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B78" s="3">
-        <v>1320</v>
+        <v>1440</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="F78" s="3">
+        <v>1931</v>
+      </c>
+      <c r="G78" s="3">
         <v>1964</v>
       </c>
-      <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3">
-        <v>10724</v>
+        <v>11520</v>
       </c>
       <c r="J78" s="3">
         <v>1</v>
@@ -4240,21 +4247,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11">
       <c r="A79" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B79" s="3">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F79" s="3">
         <v>1964</v>
@@ -4271,31 +4278,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11">
       <c r="A80" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B80" s="3">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F80" s="3">
         <v>1964</v>
       </c>
-      <c r="G80" s="3">
-        <v>1995</v>
-      </c>
-      <c r="H80" s="3">
-        <v>1995</v>
-      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
       <c r="I80" s="3">
         <v>10724</v>
       </c>
@@ -4306,21 +4309,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11">
       <c r="A81" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B81" s="3">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F81" s="3">
         <v>1964</v>
@@ -4341,30 +4344,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11">
       <c r="A82" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B82" s="3">
-        <v>1385</v>
+        <v>1345</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="F82" s="3">
         <v>1964</v>
       </c>
       <c r="G82" s="3">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="H82" s="3">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="I82" s="3">
         <v>10724</v>
@@ -4376,152 +4379,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+    <row r="83" spans="1:11">
+      <c r="A83" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
+        <v>1385</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1964</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2001</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2001</v>
+      </c>
+      <c r="I83" s="3">
+        <v>10724</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="4">
         <v>1350</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F83" s="4">
+      <c r="F84" s="4">
         <v>1964</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="4">
         <v>2000</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="4">
         <v>2000</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I84" s="4">
         <v>10724</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J84" s="4">
         <v>1</v>
       </c>
-      <c r="K83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84">
-        <v>1415</v>
-      </c>
-      <c r="C84" t="s">
-        <v>242</v>
-      </c>
-      <c r="D84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" t="s">
-        <v>243</v>
-      </c>
-      <c r="G84">
-        <v>1954</v>
-      </c>
-      <c r="H84">
-        <v>1958</v>
-      </c>
-      <c r="I84">
-        <v>9562</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>11</v>
       </c>
       <c r="B85">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>242</v>
+      </c>
+      <c r="G85">
+        <v>1954</v>
+      </c>
+      <c r="H85">
+        <v>1958</v>
       </c>
       <c r="I85">
-        <v>7190</v>
+        <v>9562</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>11</v>
       </c>
       <c r="B86">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="C86" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>261</v>
-      </c>
-      <c r="F86">
-        <v>1930</v>
+        <v>12</v>
       </c>
       <c r="I86">
-        <v>6845</v>
+        <v>7190</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>11</v>
       </c>
       <c r="B87">
-        <v>1745</v>
+        <v>1435</v>
       </c>
       <c r="C87" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>280</v>
-      </c>
-      <c r="G87">
-        <v>2006</v>
-      </c>
-      <c r="H87">
-        <v>2006</v>
+        <v>260</v>
+      </c>
+      <c r="F87">
+        <v>1930</v>
       </c>
       <c r="I87">
-        <v>6000</v>
+        <v>6845</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4530,50 +4536,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>11</v>
       </c>
       <c r="B88">
-        <v>1668</v>
+        <v>1745</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>26</v>
+        <v>279</v>
+      </c>
+      <c r="G88">
+        <v>2006</v>
+      </c>
+      <c r="H88">
+        <v>2006</v>
       </c>
       <c r="I88">
-        <v>5825</v>
+        <v>6000</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>11</v>
       </c>
       <c r="B89">
-        <v>1840</v>
+        <v>1668</v>
       </c>
       <c r="C89" t="s">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="I89">
-        <v>5206</v>
+        <v>5825</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4582,50 +4594,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>11</v>
       </c>
       <c r="B90">
-        <v>1430</v>
+        <v>1840</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
-      </c>
-      <c r="G90">
-        <v>1998</v>
+        <v>240</v>
       </c>
       <c r="I90">
-        <v>4550</v>
+        <v>5206</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>11</v>
       </c>
       <c r="B91">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G91">
         <v>1998</v>
@@ -4640,27 +4649,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>11</v>
       </c>
       <c r="B92">
-        <v>1375</v>
+        <v>1431</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G92">
-        <v>1986</v>
+        <v>1998</v>
       </c>
       <c r="I92">
-        <v>4500</v>
+        <v>4550</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -4669,27 +4678,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>11</v>
       </c>
       <c r="B93">
-        <v>1425</v>
+        <v>1375</v>
       </c>
       <c r="C93" t="s">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="G93">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="I93">
-        <v>4444</v>
+        <v>4500</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -4698,27 +4707,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>11</v>
       </c>
       <c r="B94">
-        <v>1815</v>
+        <v>1425</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="G94">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="I94">
-        <v>4000</v>
+        <v>4444</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4727,30 +4736,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>11</v>
       </c>
       <c r="B95">
-        <v>1055</v>
+        <v>1815</v>
       </c>
       <c r="C95" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G95">
-        <v>1986</v>
-      </c>
-      <c r="H95">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="I95">
-        <v>3675</v>
+        <v>4000</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -4759,85 +4765,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>11</v>
       </c>
       <c r="B96">
-        <v>1226</v>
+        <v>1055</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>145</v>
+        <v>50</v>
+      </c>
+      <c r="G96">
+        <v>1986</v>
+      </c>
+      <c r="H96">
+        <v>2022</v>
       </c>
       <c r="I96">
-        <v>3519</v>
+        <v>3675</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>11</v>
       </c>
       <c r="B97">
-        <v>1433</v>
+        <v>1226</v>
       </c>
       <c r="C97" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
-      </c>
-      <c r="G97">
-        <v>1998</v>
+        <v>144</v>
       </c>
       <c r="I97">
-        <v>3000</v>
+        <v>3519</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>11</v>
       </c>
       <c r="B98">
-        <v>1510</v>
+        <v>1433</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G98">
-        <v>1900</v>
-      </c>
-      <c r="H98">
-        <v>2019</v>
+        <v>1998</v>
       </c>
       <c r="I98">
-        <v>2926</v>
+        <v>3000</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -4846,126 +4852,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>11</v>
       </c>
       <c r="B99">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G99">
-        <v>2022</v>
+        <v>1900</v>
+      </c>
+      <c r="H99">
+        <v>2019</v>
       </c>
       <c r="I99">
-        <v>2864</v>
+        <v>2926</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>11</v>
       </c>
       <c r="B100">
+        <v>1517</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100">
+        <v>2022</v>
+      </c>
+      <c r="I100">
+        <v>2864</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101">
         <v>1720</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>18</v>
       </c>
-      <c r="D100" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
         <v>18</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>1890</v>
       </c>
-      <c r="G100">
+      <c r="G101">
         <v>2004</v>
       </c>
-      <c r="H100">
+      <c r="H101">
         <v>2019</v>
       </c>
-      <c r="I100">
+      <c r="I101">
         <v>2272</v>
       </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" s="3">
-        <v>1255</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3">
-        <v>2002</v>
-      </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B102" s="3">
-        <v>1450</v>
+        <v>1255</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1985</v>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3">
-        <v>2019</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3">
+        <v>2002</v>
+      </c>
+      <c r="H102" s="3"/>
       <c r="I102" s="3">
-        <v>2016</v>
+        <v>2700</v>
       </c>
       <c r="J102" s="3">
         <v>1</v>
@@ -4974,21 +4979,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11">
       <c r="A103" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="3">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F103" s="3">
         <v>1985</v>
@@ -5007,21 +5012,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11">
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B104" s="3">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F104" s="3">
         <v>1985</v>
@@ -5040,125 +5045,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:11">
+      <c r="A105" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="3">
+        <v>1460</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F105" s="3">
+        <v>1985</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3">
+        <v>2019</v>
+      </c>
+      <c r="I105" s="3">
+        <v>2016</v>
+      </c>
+      <c r="J105" s="3">
+        <v>1</v>
+      </c>
+      <c r="K105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="5">
         <v>1465</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C106" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" s="5" t="s">
+      <c r="F106" s="5">
+        <v>1985</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5">
+        <v>2019</v>
+      </c>
+      <c r="I106" s="5">
+        <v>2016</v>
+      </c>
+      <c r="J106" s="5">
+        <v>1</v>
+      </c>
+      <c r="K106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1470</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F105" s="5">
+      <c r="D107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F107" s="4">
         <v>1985</v>
       </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5">
+      <c r="G107" s="4"/>
+      <c r="H107" s="4">
         <v>2019</v>
       </c>
-      <c r="I105" s="5">
+      <c r="I107" s="4">
         <v>2016</v>
       </c>
-      <c r="J105" s="5">
+      <c r="J107" s="4">
         <v>1</v>
       </c>
-      <c r="K105" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106" s="4">
-        <v>1470</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F106" s="4">
-        <v>1985</v>
-      </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4">
-        <v>2019</v>
-      </c>
-      <c r="I106" s="4">
-        <v>2016</v>
-      </c>
-      <c r="J106" s="4">
-        <v>1</v>
-      </c>
-      <c r="K106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>22</v>
-      </c>
-      <c r="B107">
-        <v>1200</v>
-      </c>
-      <c r="C107" t="s">
-        <v>23</v>
-      </c>
-      <c r="D107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107">
-        <v>2001</v>
-      </c>
-      <c r="I107">
-        <v>1900</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>22</v>
       </c>
       <c r="B108">
-        <v>1267</v>
+        <v>1200</v>
       </c>
       <c r="C108" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G108">
-        <v>2012</v>
-      </c>
-      <c r="H108">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="I108">
-        <v>1729</v>
+        <v>1900</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -5167,33 +5173,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>22</v>
       </c>
       <c r="B109">
-        <v>1490</v>
+        <v>1267</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F109">
-        <v>1910</v>
+        <v>48</v>
       </c>
       <c r="G109">
-        <v>1987</v>
+        <v>2012</v>
       </c>
       <c r="H109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I109">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -5202,33 +5205,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>22</v>
       </c>
       <c r="B110">
-        <v>1280</v>
+        <v>1490</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F110">
         <v>1910</v>
       </c>
       <c r="G110">
-        <v>2001</v>
+        <v>1987</v>
       </c>
       <c r="H110">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="I110">
-        <v>1636</v>
+        <v>1728</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -5237,33 +5240,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>22</v>
       </c>
       <c r="B111">
-        <v>1740</v>
+        <v>1280</v>
       </c>
       <c r="C111" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F111">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="G111">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="H111">
         <v>2017</v>
       </c>
       <c r="I111">
-        <v>1532</v>
+        <v>1636</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -5272,27 +5275,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>22</v>
       </c>
       <c r="B112">
-        <v>1283</v>
+        <v>1740</v>
       </c>
       <c r="C112" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F112">
-        <v>1910</v>
+        <v>1902</v>
       </c>
       <c r="G112">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="H112">
         <v>2017</v>
@@ -5307,33 +5310,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>22</v>
       </c>
       <c r="B113">
-        <v>1545</v>
+        <v>1283</v>
       </c>
       <c r="C113" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F113">
-        <v>1960</v>
+        <v>1910</v>
       </c>
       <c r="G113">
-        <v>1984</v>
+        <v>2014</v>
       </c>
       <c r="H113">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I113">
-        <v>1500</v>
+        <v>1532</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -5342,21 +5345,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>22</v>
       </c>
       <c r="B114">
-        <v>1560</v>
+        <v>1545</v>
       </c>
       <c r="C114" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F114">
         <v>1960</v>
@@ -5377,33 +5380,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>22</v>
       </c>
       <c r="B115">
-        <v>1550</v>
+        <v>1560</v>
       </c>
       <c r="C115" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F115">
-        <v>1910</v>
+        <v>1960</v>
       </c>
       <c r="G115">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="H115">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="I115">
-        <v>1492</v>
+        <v>1500</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -5412,27 +5415,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>22</v>
       </c>
       <c r="B116">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="C116" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F116">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="G116">
-        <v>2005</v>
+        <v>1982</v>
       </c>
       <c r="H116">
         <v>2017</v>
@@ -5447,27 +5450,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>22</v>
       </c>
       <c r="B117">
-        <v>1432</v>
+        <v>1555</v>
       </c>
       <c r="C117" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="F117">
+        <v>1900</v>
       </c>
       <c r="G117">
-        <v>1998</v>
+        <v>2005</v>
+      </c>
+      <c r="H117">
+        <v>2017</v>
       </c>
       <c r="I117">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -5476,33 +5485,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>22</v>
       </c>
       <c r="B118">
-        <v>1265</v>
+        <v>1432</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
-      </c>
-      <c r="F118">
-        <v>1910</v>
+        <v>43</v>
       </c>
       <c r="G118">
-        <v>1989</v>
-      </c>
-      <c r="H118">
-        <v>2019</v>
+        <v>1998</v>
       </c>
       <c r="I118">
-        <v>1476</v>
+        <v>1489</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -5511,30 +5514,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>22</v>
       </c>
       <c r="B119">
-        <v>1515</v>
+        <v>1265</v>
       </c>
       <c r="C119" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F119">
-        <v>1870</v>
+        <v>1910</v>
+      </c>
+      <c r="G119">
+        <v>1989</v>
       </c>
       <c r="H119">
         <v>2019</v>
       </c>
       <c r="I119">
-        <v>1462</v>
+        <v>1476</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -5543,33 +5549,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>22</v>
       </c>
       <c r="B120">
-        <v>1570</v>
+        <v>1515</v>
       </c>
       <c r="C120" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F120">
-        <v>1910</v>
-      </c>
-      <c r="G120">
-        <v>1983</v>
+        <v>1870</v>
       </c>
       <c r="H120">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="I120">
-        <v>1448</v>
+        <v>1462</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -5578,33 +5581,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>22</v>
       </c>
       <c r="B121">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="C121" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F121">
         <v>1910</v>
       </c>
       <c r="G121">
-        <v>1991</v>
+        <v>1983</v>
       </c>
       <c r="H121">
         <v>2017</v>
       </c>
       <c r="I121">
-        <v>1352</v>
+        <v>1448</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -5613,33 +5616,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>22</v>
       </c>
       <c r="B122">
-        <v>1565</v>
+        <v>1580</v>
       </c>
       <c r="C122" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F122">
         <v>1910</v>
       </c>
       <c r="G122">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="H122">
         <v>2017</v>
       </c>
       <c r="I122">
-        <v>1330</v>
+        <v>1352</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -5648,33 +5651,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>22</v>
       </c>
       <c r="B123">
-        <v>1525</v>
+        <v>1565</v>
       </c>
       <c r="C123" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F123">
-        <v>1874</v>
+        <v>1910</v>
       </c>
       <c r="G123">
-        <v>1987</v>
+        <v>2000</v>
       </c>
       <c r="H123">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I123">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -5683,33 +5686,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>22</v>
       </c>
       <c r="B124">
-        <v>1565</v>
+        <v>1525</v>
       </c>
       <c r="C124" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F124">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="G124">
-        <v>2009</v>
+        <v>1987</v>
       </c>
       <c r="H124">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="I124">
-        <v>1268</v>
+        <v>1318</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5718,33 +5721,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>22</v>
       </c>
       <c r="B125">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="C125" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F125">
-        <v>1910</v>
+        <v>1875</v>
       </c>
       <c r="G125">
-        <v>1984</v>
+        <v>2009</v>
       </c>
       <c r="H125">
         <v>2017</v>
       </c>
       <c r="I125">
-        <v>1244</v>
+        <v>1268</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -5753,104 +5756,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>22</v>
       </c>
       <c r="B126">
+        <v>1575</v>
+      </c>
+      <c r="C126" t="s">
+        <v>87</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>87</v>
+      </c>
+      <c r="F126">
+        <v>1910</v>
+      </c>
+      <c r="G126">
+        <v>1984</v>
+      </c>
+      <c r="H126">
+        <v>2017</v>
+      </c>
+      <c r="I126">
+        <v>1244</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127">
         <v>1295</v>
       </c>
-      <c r="C126" t="s">
-        <v>91</v>
-      </c>
-      <c r="D126" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" t="s">
-        <v>91</v>
-      </c>
-      <c r="G126">
+      <c r="C127" t="s">
+        <v>90</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>90</v>
+      </c>
+      <c r="G127">
         <v>2006</v>
       </c>
-      <c r="I126">
+      <c r="I127">
         <v>1200</v>
       </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B128" s="1">
         <v>1340</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F127" s="1">
+      <c r="F128" s="1">
         <v>1930</v>
       </c>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1">
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1">
         <v>725</v>
       </c>
-      <c r="J127" s="1">
-        <v>0</v>
-      </c>
-      <c r="K127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>19</v>
-      </c>
-      <c r="B128">
-        <v>1667</v>
-      </c>
-      <c r="C128" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" t="s">
-        <v>21</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>19</v>
       </c>
       <c r="B129">
-        <v>1518</v>
+        <v>1667</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -5859,15 +5874,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>19</v>
       </c>
       <c r="B130">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
@@ -5882,21 +5897,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>19</v>
       </c>
       <c r="B131">
-        <v>1821</v>
+        <v>1521</v>
       </c>
       <c r="C131" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -5905,15 +5920,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>19</v>
       </c>
       <c r="B132">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C132" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
@@ -5928,11 +5943,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133">
+        <v>1822</v>
+      </c>
+      <c r="C133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>47</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K132">
-    <sortCondition ref="A2:A132"/>
-    <sortCondition ref="J2:J132"/>
-    <sortCondition descending="1" ref="I2:I132"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K133">
+    <sortCondition ref="A2:A133"/>
+    <sortCondition ref="J2:J133"/>
+    <sortCondition descending="1" ref="I2:I133"/>
   </sortState>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
